--- a/Financials/Quarterly/TEF_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TEF_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD4B055-3377-4594-AD79-5C4567195E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEF" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>TEF</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,148 +689,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14254700</v>
+        <v>14492700</v>
       </c>
       <c r="E8" s="3">
-        <v>14308700</v>
+        <v>13126200</v>
       </c>
       <c r="F8" s="3">
-        <v>15449700</v>
+        <v>27014200</v>
       </c>
       <c r="G8" s="3">
-        <v>14970800</v>
+        <v>13677100</v>
       </c>
       <c r="H8" s="3">
-        <v>30627100</v>
+        <v>14767600</v>
       </c>
       <c r="I8" s="3">
+        <v>14309900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>29275000</v>
+      </c>
+      <c r="K8" s="3">
         <v>15414500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16105800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15353400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3945200</v>
+        <v>4238900</v>
       </c>
       <c r="E9" s="3">
-        <v>3667000</v>
+        <v>3560100</v>
       </c>
       <c r="F9" s="3">
-        <v>4442900</v>
+        <v>7009100</v>
       </c>
       <c r="G9" s="3">
-        <v>4040300</v>
+        <v>3505100</v>
       </c>
       <c r="H9" s="3">
-        <v>8136900</v>
+        <v>4246700</v>
       </c>
       <c r="I9" s="3">
+        <v>3861900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7777600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4134200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4581400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4081300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10309600</v>
+        <v>10253900</v>
       </c>
       <c r="E10" s="3">
-        <v>10641800</v>
+        <v>9566100</v>
       </c>
       <c r="F10" s="3">
-        <v>11006800</v>
+        <v>20005100</v>
       </c>
       <c r="G10" s="3">
-        <v>10930500</v>
+        <v>10172000</v>
       </c>
       <c r="H10" s="3">
-        <v>22490200</v>
+        <v>10520900</v>
       </c>
       <c r="I10" s="3">
+        <v>10448000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>21497300</v>
+      </c>
+      <c r="K10" s="3">
         <v>11280300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>11524500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11272100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +866,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +897,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,66 +932,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>124400</v>
+        <v>267000</v>
       </c>
       <c r="E14" s="3">
-        <v>2300</v>
+        <v>38100</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>124500</v>
       </c>
       <c r="G14" s="3">
-        <v>4700</v>
+        <v>22400</v>
       </c>
       <c r="H14" s="3">
-        <v>-10600</v>
+        <v>5600</v>
       </c>
       <c r="I14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K14" s="3">
         <v>8200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-21100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2556600</v>
+        <v>2769100</v>
       </c>
       <c r="E15" s="3">
-        <v>2614100</v>
+        <v>2369600</v>
       </c>
       <c r="F15" s="3">
-        <v>2658700</v>
+        <v>5014200</v>
       </c>
       <c r="G15" s="3">
-        <v>2725600</v>
+        <v>2498700</v>
       </c>
       <c r="H15" s="3">
-        <v>5644900</v>
+        <v>2541300</v>
       </c>
       <c r="I15" s="3">
+        <v>2605300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5395600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2877000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2955700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2885200</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11837900</v>
+        <v>13294500</v>
       </c>
       <c r="E17" s="3">
-        <v>12386000</v>
+        <v>10965200</v>
       </c>
       <c r="F17" s="3">
-        <v>13515200</v>
+        <v>23055800</v>
       </c>
       <c r="G17" s="3">
-        <v>12889600</v>
+        <v>11839200</v>
       </c>
       <c r="H17" s="3">
-        <v>26671300</v>
+        <v>12918600</v>
       </c>
       <c r="I17" s="3">
+        <v>12320600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25493900</v>
+      </c>
+      <c r="K17" s="3">
         <v>13571600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15320600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13336800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2416900</v>
+        <v>1198300</v>
       </c>
       <c r="E18" s="3">
-        <v>1922700</v>
+        <v>2161000</v>
       </c>
       <c r="F18" s="3">
-        <v>1934400</v>
+        <v>3958400</v>
       </c>
       <c r="G18" s="3">
-        <v>2081200</v>
+        <v>1837800</v>
       </c>
       <c r="H18" s="3">
-        <v>3955700</v>
+        <v>1849000</v>
       </c>
       <c r="I18" s="3">
+        <v>1989300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3781100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1842900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>785300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1103,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1200</v>
+        <v>-424100</v>
       </c>
       <c r="E20" s="3">
-        <v>-444900</v>
+        <v>-237900</v>
       </c>
       <c r="F20" s="3">
-        <v>-551700</v>
+        <v>-405000</v>
       </c>
       <c r="G20" s="3">
-        <v>-622100</v>
+        <v>-425200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1401500</v>
+        <v>-527300</v>
       </c>
       <c r="I20" s="3">
+        <v>-594700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1339700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-524700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-435500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-623300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2360500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>4091900</v>
+        <v>1920800</v>
       </c>
       <c r="F21" s="3">
-        <v>1315800</v>
+        <v>5997000</v>
       </c>
       <c r="G21" s="3">
-        <v>1416800</v>
+        <v>3911300</v>
       </c>
       <c r="H21" s="3">
-        <v>5322100</v>
+        <v>1257800</v>
       </c>
       <c r="I21" s="3">
+        <v>1354200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5087100</v>
+      </c>
+      <c r="K21" s="3">
         <v>4195200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>420200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1183200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1204,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2418000</v>
+        <v>774200</v>
       </c>
       <c r="E23" s="3">
-        <v>1477800</v>
+        <v>1923100</v>
       </c>
       <c r="F23" s="3">
-        <v>1382700</v>
+        <v>3553300</v>
       </c>
       <c r="G23" s="3">
-        <v>1459000</v>
+        <v>1412600</v>
       </c>
       <c r="H23" s="3">
-        <v>2554200</v>
+        <v>1321700</v>
       </c>
       <c r="I23" s="3">
+        <v>1394600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2441500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1318200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>349800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1102200</v>
+        <v>-53900</v>
       </c>
       <c r="E24" s="3">
-        <v>421400</v>
+        <v>410600</v>
       </c>
       <c r="F24" s="3">
-        <v>413200</v>
+        <v>1462000</v>
       </c>
       <c r="G24" s="3">
-        <v>407300</v>
+        <v>402800</v>
       </c>
       <c r="H24" s="3">
-        <v>610400</v>
+        <v>394900</v>
       </c>
       <c r="I24" s="3">
+        <v>389300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>583400</v>
+      </c>
+      <c r="K24" s="3">
         <v>368600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>123300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1315800</v>
+        <v>828000</v>
       </c>
       <c r="E26" s="3">
-        <v>1056400</v>
+        <v>1512400</v>
       </c>
       <c r="F26" s="3">
-        <v>969600</v>
+        <v>2091400</v>
       </c>
       <c r="G26" s="3">
-        <v>1051700</v>
+        <v>1009800</v>
       </c>
       <c r="H26" s="3">
-        <v>1943800</v>
+        <v>926800</v>
       </c>
       <c r="I26" s="3">
+        <v>1005300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1858000</v>
+      </c>
+      <c r="K26" s="3">
         <v>949600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>226500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1166800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1058800</v>
+        <v>614900</v>
       </c>
       <c r="E27" s="3">
-        <v>982500</v>
+        <v>1207300</v>
       </c>
       <c r="F27" s="3">
-        <v>731300</v>
+        <v>1463100</v>
       </c>
       <c r="G27" s="3">
-        <v>903800</v>
+        <v>702400</v>
       </c>
       <c r="H27" s="3">
-        <v>1717300</v>
+        <v>699000</v>
       </c>
       <c r="I27" s="3">
+        <v>863900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1641500</v>
+      </c>
+      <c r="K27" s="3">
         <v>914400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-131500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1414,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1449,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1200</v>
+        <v>424100</v>
       </c>
       <c r="E32" s="3">
-        <v>444900</v>
+        <v>237900</v>
       </c>
       <c r="F32" s="3">
-        <v>551700</v>
+        <v>405000</v>
       </c>
       <c r="G32" s="3">
-        <v>622100</v>
+        <v>425200</v>
       </c>
       <c r="H32" s="3">
-        <v>1401500</v>
+        <v>527300</v>
       </c>
       <c r="I32" s="3">
+        <v>594700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1339700</v>
+      </c>
+      <c r="K32" s="3">
         <v>524700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>435500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>623300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1058800</v>
+        <v>614900</v>
       </c>
       <c r="E33" s="3">
-        <v>982500</v>
+        <v>1207300</v>
       </c>
       <c r="F33" s="3">
-        <v>731300</v>
+        <v>1463100</v>
       </c>
       <c r="G33" s="3">
-        <v>903800</v>
+        <v>702400</v>
       </c>
       <c r="H33" s="3">
-        <v>1717300</v>
+        <v>699000</v>
       </c>
       <c r="I33" s="3">
+        <v>863900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1641500</v>
+      </c>
+      <c r="K33" s="3">
         <v>914400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-131500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1058800</v>
+        <v>614900</v>
       </c>
       <c r="E35" s="3">
-        <v>982500</v>
+        <v>1207300</v>
       </c>
       <c r="F35" s="3">
-        <v>731300</v>
+        <v>1463100</v>
       </c>
       <c r="G35" s="3">
-        <v>903800</v>
+        <v>702400</v>
       </c>
       <c r="H35" s="3">
-        <v>1717300</v>
+        <v>699000</v>
       </c>
       <c r="I35" s="3">
+        <v>863900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1641500</v>
+      </c>
+      <c r="K35" s="3">
         <v>914400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-131500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,269 +1733,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4298500</v>
+        <v>6386400</v>
       </c>
       <c r="E41" s="3">
-        <v>5660100</v>
+        <v>6886800</v>
       </c>
       <c r="F41" s="3">
-        <v>6094400</v>
+        <v>4108700</v>
       </c>
       <c r="G41" s="3">
-        <v>4338400</v>
+        <v>5410200</v>
       </c>
       <c r="H41" s="3">
-        <v>7096900</v>
+        <v>5825400</v>
       </c>
       <c r="I41" s="3">
+        <v>4146900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6783600</v>
+      </c>
+      <c r="K41" s="3">
         <v>8675600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4385400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3702200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2995600</v>
+        <v>2478500</v>
       </c>
       <c r="E42" s="3">
-        <v>3452200</v>
+        <v>2472900</v>
       </c>
       <c r="F42" s="3">
-        <v>2528400</v>
+        <v>2863300</v>
       </c>
       <c r="G42" s="3">
-        <v>2763100</v>
+        <v>3299800</v>
       </c>
       <c r="H42" s="3">
-        <v>4214000</v>
+        <v>2416800</v>
       </c>
       <c r="I42" s="3">
+        <v>2641200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4027900</v>
+      </c>
+      <c r="K42" s="3">
         <v>4370100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3467400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3631800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11037300</v>
+        <v>11326500</v>
       </c>
       <c r="E43" s="3">
-        <v>13971900</v>
+        <v>13210300</v>
       </c>
       <c r="F43" s="3">
-        <v>13461300</v>
+        <v>10550100</v>
       </c>
       <c r="G43" s="3">
-        <v>13642000</v>
+        <v>13355000</v>
       </c>
       <c r="H43" s="3">
-        <v>14313400</v>
+        <v>12867000</v>
       </c>
       <c r="I43" s="3">
+        <v>13039800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>13681500</v>
+      </c>
+      <c r="K43" s="3">
         <v>14182000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14329900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>14147900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1432000</v>
+        <v>1898400</v>
       </c>
       <c r="E44" s="3">
-        <v>1378100</v>
+        <v>2034200</v>
       </c>
       <c r="F44" s="3">
-        <v>1311100</v>
+        <v>1368800</v>
       </c>
       <c r="G44" s="3">
-        <v>1441400</v>
+        <v>1317200</v>
       </c>
       <c r="H44" s="3">
-        <v>1207900</v>
+        <v>1253300</v>
       </c>
       <c r="I44" s="3">
+        <v>1377800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1154500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1320500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1238400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1353400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2989700</v>
+        <v>4097500</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>96500</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>2857700</v>
       </c>
       <c r="G45" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K45" s="3">
         <v>20000</v>
       </c>
-      <c r="I45" s="3">
-        <v>20000</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>24700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22753100</v>
+        <v>26187200</v>
       </c>
       <c r="E46" s="3">
-        <v>24462200</v>
+        <v>24700600</v>
       </c>
       <c r="F46" s="3">
-        <v>23395200</v>
+        <v>21748700</v>
       </c>
       <c r="G46" s="3">
-        <v>22186200</v>
+        <v>23382300</v>
       </c>
       <c r="H46" s="3">
-        <v>26852100</v>
+        <v>22362400</v>
       </c>
       <c r="I46" s="3">
+        <v>21206700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>25666600</v>
+      </c>
+      <c r="K46" s="3">
         <v>28568200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>23445700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>22863500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3710400</v>
+        <v>2312400</v>
       </c>
       <c r="E47" s="3">
-        <v>9905800</v>
+        <v>9181200</v>
       </c>
       <c r="F47" s="3">
-        <v>2830100</v>
+        <v>3546600</v>
       </c>
       <c r="G47" s="3">
-        <v>9951600</v>
+        <v>9468500</v>
       </c>
       <c r="H47" s="3">
-        <v>3243200</v>
+        <v>2705100</v>
       </c>
       <c r="I47" s="3">
+        <v>9512200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3100100</v>
+      </c>
+      <c r="K47" s="3">
         <v>11416500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>11551500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11461100</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38353100</v>
+        <v>37356700</v>
       </c>
       <c r="E48" s="3">
-        <v>39510400</v>
+        <v>37165900</v>
       </c>
       <c r="F48" s="3">
-        <v>40173600</v>
+        <v>36659900</v>
       </c>
       <c r="G48" s="3">
-        <v>40225300</v>
+        <v>37766200</v>
       </c>
       <c r="H48" s="3">
-        <v>40146600</v>
+        <v>38400100</v>
       </c>
       <c r="I48" s="3">
+        <v>38449500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>38374300</v>
+      </c>
+      <c r="K48" s="3">
         <v>43046000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>42718500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>40554000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50057100</v>
+        <v>47801300</v>
       </c>
       <c r="E49" s="3">
-        <v>51571300</v>
+        <v>47753000</v>
       </c>
       <c r="F49" s="3">
-        <v>52640700</v>
+        <v>47847300</v>
       </c>
       <c r="G49" s="3">
-        <v>54272300</v>
+        <v>49294600</v>
       </c>
       <c r="H49" s="3">
-        <v>54200700</v>
+        <v>50316800</v>
       </c>
       <c r="I49" s="3">
+        <v>51876300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>51807900</v>
+      </c>
+      <c r="K49" s="3">
         <v>57717400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>57756100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>57014300</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2114,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15361700</v>
+        <v>14302000</v>
       </c>
       <c r="E52" s="3">
-        <v>9271900</v>
+        <v>8279200</v>
       </c>
       <c r="F52" s="3">
-        <v>16026000</v>
+        <v>14683500</v>
       </c>
       <c r="G52" s="3">
-        <v>9470300</v>
+        <v>8862600</v>
       </c>
       <c r="H52" s="3">
-        <v>16826600</v>
+        <v>15318500</v>
       </c>
       <c r="I52" s="3">
+        <v>9052200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>16083700</v>
+      </c>
+      <c r="K52" s="3">
         <v>9645200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9659300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9747300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>130235400</v>
+        <v>127959600</v>
       </c>
       <c r="E54" s="3">
-        <v>134721700</v>
+        <v>127080000</v>
       </c>
       <c r="F54" s="3">
-        <v>135065600</v>
+        <v>124485900</v>
       </c>
       <c r="G54" s="3">
-        <v>136105600</v>
+        <v>128774200</v>
       </c>
       <c r="H54" s="3">
-        <v>141269200</v>
+        <v>129102900</v>
       </c>
       <c r="I54" s="3">
+        <v>130097000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>135032600</v>
+      </c>
+      <c r="K54" s="3">
         <v>150393200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>145131000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>141640100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2253,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9234400</v>
+        <v>17374000</v>
       </c>
       <c r="E57" s="3">
-        <v>16519000</v>
+        <v>17549000</v>
       </c>
       <c r="F57" s="3">
-        <v>17718700</v>
+        <v>8826700</v>
       </c>
       <c r="G57" s="3">
-        <v>16751400</v>
+        <v>15789800</v>
       </c>
       <c r="H57" s="3">
-        <v>16886400</v>
+        <v>16936400</v>
       </c>
       <c r="I57" s="3">
+        <v>16011900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16140900</v>
+      </c>
+      <c r="K57" s="3">
         <v>17013200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>18957000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17546100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9511400</v>
+        <v>10510800</v>
       </c>
       <c r="E58" s="3">
-        <v>8278900</v>
+        <v>9543600</v>
       </c>
       <c r="F58" s="3">
-        <v>11050200</v>
+        <v>9091500</v>
       </c>
       <c r="G58" s="3">
-        <v>11421200</v>
+        <v>7913400</v>
       </c>
       <c r="H58" s="3">
-        <v>16098800</v>
+        <v>10562400</v>
       </c>
       <c r="I58" s="3">
+        <v>10917000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>15388100</v>
+      </c>
+      <c r="K58" s="3">
         <v>17176400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>17312500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>18158800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13932000</v>
+        <v>5381100</v>
       </c>
       <c r="E59" s="3">
-        <v>5410100</v>
+        <v>4534000</v>
       </c>
       <c r="F59" s="3">
-        <v>5349100</v>
+        <v>13316900</v>
       </c>
       <c r="G59" s="3">
-        <v>5033300</v>
+        <v>5171300</v>
       </c>
       <c r="H59" s="3">
-        <v>5147200</v>
+        <v>5112900</v>
       </c>
       <c r="I59" s="3">
+        <v>4811100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4919900</v>
+      </c>
+      <c r="K59" s="3">
         <v>5508700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5343200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4803200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32677700</v>
+        <v>33265900</v>
       </c>
       <c r="E60" s="3">
-        <v>30208000</v>
+        <v>31626700</v>
       </c>
       <c r="F60" s="3">
-        <v>34118000</v>
+        <v>31235100</v>
       </c>
       <c r="G60" s="3">
-        <v>33205900</v>
+        <v>28874400</v>
       </c>
       <c r="H60" s="3">
-        <v>38132400</v>
+        <v>32611800</v>
       </c>
       <c r="I60" s="3">
+        <v>31740000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>36449000</v>
+      </c>
+      <c r="K60" s="3">
         <v>39698300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>41612700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>40508200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54932000</v>
+        <v>50864300</v>
       </c>
       <c r="E61" s="3">
-        <v>57340600</v>
+        <v>53274300</v>
       </c>
       <c r="F61" s="3">
-        <v>54385000</v>
+        <v>52506900</v>
       </c>
       <c r="G61" s="3">
-        <v>55964900</v>
+        <v>54809200</v>
       </c>
       <c r="H61" s="3">
-        <v>57258500</v>
+        <v>51984000</v>
       </c>
       <c r="I61" s="3">
+        <v>53494200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>54730700</v>
+      </c>
+      <c r="K61" s="3">
         <v>58827800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>53539800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>53644300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14788800</v>
+        <v>13558100</v>
       </c>
       <c r="E62" s="3">
-        <v>15224300</v>
+        <v>13911600</v>
       </c>
       <c r="F62" s="3">
-        <v>15318200</v>
+        <v>14136000</v>
       </c>
       <c r="G62" s="3">
-        <v>15611700</v>
+        <v>14552200</v>
       </c>
       <c r="H62" s="3">
-        <v>15906300</v>
+        <v>14642000</v>
       </c>
       <c r="I62" s="3">
+        <v>14922500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>15204100</v>
+      </c>
+      <c r="K62" s="3">
         <v>16766700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>16659900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15685600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>112838400</v>
+        <v>107823200</v>
       </c>
       <c r="E66" s="3">
-        <v>113912400</v>
+        <v>108821800</v>
       </c>
       <c r="F66" s="3">
-        <v>115204800</v>
+        <v>107856900</v>
       </c>
       <c r="G66" s="3">
-        <v>115752900</v>
+        <v>108883500</v>
       </c>
       <c r="H66" s="3">
-        <v>121458800</v>
+        <v>110118800</v>
       </c>
       <c r="I66" s="3">
+        <v>110642800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>116096800</v>
+      </c>
+      <c r="K66" s="3">
         <v>126574300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>123818200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>121489300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2684,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2719,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22913900</v>
+        <v>20136400</v>
       </c>
       <c r="E72" s="3">
-        <v>20810500</v>
+        <v>18258100</v>
       </c>
       <c r="F72" s="3">
-        <v>19860900</v>
+        <v>21902400</v>
       </c>
       <c r="G72" s="3">
-        <v>20352700</v>
+        <v>19891800</v>
       </c>
       <c r="H72" s="3">
-        <v>21821100</v>
+        <v>18984100</v>
       </c>
       <c r="I72" s="3">
+        <v>19454200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>20857800</v>
+      </c>
+      <c r="K72" s="3">
         <v>23819000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>21312900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>20150800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17397000</v>
+        <v>20136400</v>
       </c>
       <c r="E76" s="3">
-        <v>20809300</v>
+        <v>18258100</v>
       </c>
       <c r="F76" s="3">
-        <v>19860900</v>
+        <v>16629000</v>
       </c>
       <c r="G76" s="3">
-        <v>20352700</v>
+        <v>19890600</v>
       </c>
       <c r="H76" s="3">
-        <v>19810400</v>
+        <v>18984100</v>
       </c>
       <c r="I76" s="3">
+        <v>19454200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>18935800</v>
+      </c>
+      <c r="K76" s="3">
         <v>23819000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>21312900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20150800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1058800</v>
+        <v>614900</v>
       </c>
       <c r="E81" s="3">
-        <v>982500</v>
+        <v>1207300</v>
       </c>
       <c r="F81" s="3">
-        <v>731300</v>
+        <v>1463100</v>
       </c>
       <c r="G81" s="3">
-        <v>903800</v>
+        <v>702400</v>
       </c>
       <c r="H81" s="3">
-        <v>1717300</v>
+        <v>699000</v>
       </c>
       <c r="I81" s="3">
+        <v>863900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1641500</v>
+      </c>
+      <c r="K81" s="3">
         <v>914400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-131500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,8 +3058,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2658,8 +3089,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>4083700</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>3077700</v>
+        <v>3488300</v>
       </c>
       <c r="F89" s="3">
-        <v>4614200</v>
+        <v>6845300</v>
       </c>
       <c r="G89" s="3">
-        <v>4588400</v>
+        <v>2941900</v>
       </c>
       <c r="H89" s="3">
-        <v>6988900</v>
+        <v>4410500</v>
       </c>
       <c r="I89" s="3">
+        <v>4385900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6680300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3219800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4737500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4595500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-2908700</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-2469700</v>
+        <v>-1978100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2580000</v>
+        <v>-5141000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2804200</v>
+        <v>-2360700</v>
       </c>
       <c r="H91" s="3">
-        <v>-5170600</v>
+        <v>-2466100</v>
       </c>
       <c r="I91" s="3">
+        <v>-2680400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4942400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2682200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2297100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2994400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2126900</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-4042600</v>
+        <v>-1494500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2635200</v>
+        <v>-5897200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2486100</v>
+        <v>-3864100</v>
       </c>
       <c r="H94" s="3">
-        <v>-6904400</v>
+        <v>-2518900</v>
       </c>
       <c r="I94" s="3">
+        <v>-2376400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6599500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3958100</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3473,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1288800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-393200</v>
+        <v>-322000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1248900</v>
+        <v>-1607800</v>
       </c>
       <c r="G96" s="3">
-        <v>-304000</v>
+        <v>-375900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1333400</v>
+        <v>-1193800</v>
       </c>
       <c r="I96" s="3">
+        <v>-290600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1274600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-85700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-3121200</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>605700</v>
+        <v>783100</v>
       </c>
       <c r="F100" s="3">
-        <v>-76300</v>
+        <v>-2404400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4950000</v>
+        <v>578900</v>
       </c>
       <c r="H100" s="3">
-        <v>2969700</v>
+        <v>-72900</v>
       </c>
       <c r="I100" s="3">
+        <v>-4731400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2838600</v>
+      </c>
+      <c r="K100" s="3">
         <v>4968700</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-197200</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>-75100</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>-146700</v>
+        <v>-260300</v>
       </c>
       <c r="G101" s="3">
-        <v>89200</v>
+        <v>-71800</v>
       </c>
       <c r="H101" s="3">
-        <v>-342800</v>
+        <v>-140200</v>
       </c>
       <c r="I101" s="3">
+        <v>85300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-327600</v>
+      </c>
+      <c r="K101" s="3">
         <v>59900</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1361600</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-434300</v>
+        <v>2778000</v>
       </c>
       <c r="F102" s="3">
-        <v>1756000</v>
+        <v>-1716600</v>
       </c>
       <c r="G102" s="3">
-        <v>-2758500</v>
+        <v>-415100</v>
       </c>
       <c r="H102" s="3">
-        <v>2711500</v>
+        <v>1678500</v>
       </c>
       <c r="I102" s="3">
+        <v>-2636700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2591800</v>
+      </c>
+      <c r="K102" s="3">
         <v>4290300</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Financials/Quarterly/TEF_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TEF_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD4B055-3377-4594-AD79-5C4567195E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TEF" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TEF</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,172 +654,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14492700</v>
+        <v>13068400</v>
       </c>
       <c r="E8" s="3">
-        <v>13126200</v>
+        <v>13331900</v>
       </c>
       <c r="F8" s="3">
-        <v>27014200</v>
+        <v>13152900</v>
       </c>
       <c r="G8" s="3">
-        <v>13677100</v>
+        <v>14182900</v>
       </c>
       <c r="H8" s="3">
+        <v>12845500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>26436500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13384600</v>
+      </c>
+      <c r="K8" s="3">
         <v>14767600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>14309900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>29275000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>15414500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>16105800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>15353400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4238900</v>
+        <v>3451000</v>
       </c>
       <c r="E9" s="3">
-        <v>3560100</v>
+        <v>3336800</v>
       </c>
       <c r="F9" s="3">
-        <v>7009100</v>
+        <v>3364300</v>
       </c>
       <c r="G9" s="3">
-        <v>3505100</v>
+        <v>4148200</v>
       </c>
       <c r="H9" s="3">
+        <v>3484000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6859200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3430200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4246700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>3861900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>7777600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>4134200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>4581400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>4081300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10253900</v>
+        <v>9617400</v>
       </c>
       <c r="E10" s="3">
-        <v>9566100</v>
+        <v>9995100</v>
       </c>
       <c r="F10" s="3">
-        <v>20005100</v>
+        <v>9788700</v>
       </c>
       <c r="G10" s="3">
-        <v>10172000</v>
+        <v>10034600</v>
       </c>
       <c r="H10" s="3">
+        <v>9361500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>19577300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9954500</v>
+      </c>
+      <c r="K10" s="3">
         <v>10520900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>10448000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>21497300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>11280300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>11524500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>11272100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +869,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,8 +907,17 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,78 +951,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>267000</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
-        <v>38100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>124500</v>
+        <v>51600</v>
       </c>
       <c r="G14" s="3">
-        <v>22400</v>
+        <v>261300</v>
       </c>
       <c r="H14" s="3">
+        <v>37300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>121900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>-10100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>-21100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2769100</v>
+        <v>2832800</v>
       </c>
       <c r="E15" s="3">
-        <v>2369600</v>
+        <v>2892100</v>
       </c>
       <c r="F15" s="3">
-        <v>5014200</v>
+        <v>2870200</v>
       </c>
       <c r="G15" s="3">
-        <v>2498700</v>
+        <v>2709900</v>
       </c>
       <c r="H15" s="3">
+        <v>2319000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4907000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2445200</v>
+      </c>
+      <c r="K15" s="3">
         <v>2541300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>2605300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>5395600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>2877000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>2955700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>2885200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1060,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13294500</v>
+        <v>12882800</v>
       </c>
       <c r="E17" s="3">
-        <v>10965200</v>
+        <v>11351100</v>
       </c>
       <c r="F17" s="3">
-        <v>23055800</v>
+        <v>11341200</v>
       </c>
       <c r="G17" s="3">
-        <v>11839200</v>
+        <v>13010200</v>
       </c>
       <c r="H17" s="3">
+        <v>10730800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>22562800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11586100</v>
+      </c>
+      <c r="K17" s="3">
         <v>12918600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>12320600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>25493900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>13571600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>15320600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>13336800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1198300</v>
+        <v>185600</v>
       </c>
       <c r="E18" s="3">
-        <v>2161000</v>
+        <v>1980800</v>
       </c>
       <c r="F18" s="3">
-        <v>3958400</v>
+        <v>1811700</v>
       </c>
       <c r="G18" s="3">
-        <v>1837800</v>
+        <v>1172700</v>
       </c>
       <c r="H18" s="3">
+        <v>2114700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3873700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1798500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1849000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>1989300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>3781100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1842900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>785300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,78 +1166,99 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-424100</v>
+        <v>-590700</v>
       </c>
       <c r="E20" s="3">
-        <v>-237900</v>
+        <v>-260200</v>
       </c>
       <c r="F20" s="3">
-        <v>-405000</v>
+        <v>-446900</v>
       </c>
       <c r="G20" s="3">
-        <v>-425200</v>
+        <v>-415000</v>
       </c>
       <c r="H20" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-396400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-416100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-527300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-594700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-1339700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-524700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-435500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-623300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-464500</v>
       </c>
       <c r="E21" s="3">
-        <v>1920800</v>
+        <v>1742500</v>
       </c>
       <c r="F21" s="3">
-        <v>5997000</v>
+        <v>4235000</v>
       </c>
       <c r="G21" s="3">
-        <v>3911300</v>
+        <v>1078200</v>
       </c>
       <c r="H21" s="3">
+        <v>1879800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5868800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3827600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1257800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1354200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>5087100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>4195200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>420200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1183200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,78 +1292,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>774200</v>
+        <v>-405200</v>
       </c>
       <c r="E23" s="3">
-        <v>1923100</v>
+        <v>1720600</v>
       </c>
       <c r="F23" s="3">
-        <v>3553300</v>
+        <v>1364800</v>
       </c>
       <c r="G23" s="3">
-        <v>1412600</v>
+        <v>757600</v>
       </c>
       <c r="H23" s="3">
+        <v>1882000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3477400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1382400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1321700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1394600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>2441500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1318200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>349800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-53900</v>
+        <v>-112000</v>
       </c>
       <c r="E24" s="3">
-        <v>410600</v>
+        <v>573200</v>
       </c>
       <c r="F24" s="3">
-        <v>1462000</v>
+        <v>256900</v>
       </c>
       <c r="G24" s="3">
-        <v>402800</v>
+        <v>-52700</v>
       </c>
       <c r="H24" s="3">
+        <v>401900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1430700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>394200</v>
+      </c>
+      <c r="K24" s="3">
         <v>394900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>389300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>583400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>368600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>123300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>226500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1424,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>828000</v>
+        <v>-293200</v>
       </c>
       <c r="E26" s="3">
-        <v>1512400</v>
+        <v>1147400</v>
       </c>
       <c r="F26" s="3">
-        <v>2091400</v>
+        <v>1107900</v>
       </c>
       <c r="G26" s="3">
-        <v>1009800</v>
+        <v>810300</v>
       </c>
       <c r="H26" s="3">
+        <v>1480100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2046700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>988200</v>
+      </c>
+      <c r="K26" s="3">
         <v>926800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1005300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>1858000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>949600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>226500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1166800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>614900</v>
+        <v>-486400</v>
       </c>
       <c r="E27" s="3">
-        <v>1207300</v>
+        <v>1043100</v>
       </c>
       <c r="F27" s="3">
-        <v>1463100</v>
+        <v>919000</v>
       </c>
       <c r="G27" s="3">
-        <v>702400</v>
+        <v>601700</v>
       </c>
       <c r="H27" s="3">
+        <v>1181400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1431800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>687300</v>
+      </c>
+      <c r="K27" s="3">
         <v>699000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>863900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>1641500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>914400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-131500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,31 +1556,40 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1455,8 +1600,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1644,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1688,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>424100</v>
+        <v>590700</v>
       </c>
       <c r="E32" s="3">
-        <v>237900</v>
+        <v>260200</v>
       </c>
       <c r="F32" s="3">
-        <v>405000</v>
+        <v>446900</v>
       </c>
       <c r="G32" s="3">
-        <v>425200</v>
+        <v>415000</v>
       </c>
       <c r="H32" s="3">
+        <v>232800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>396400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>416100</v>
+      </c>
+      <c r="K32" s="3">
         <v>527300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>594700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>1339700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>524700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>435500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>623300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>614900</v>
+        <v>-486400</v>
       </c>
       <c r="E33" s="3">
-        <v>1207300</v>
+        <v>1043100</v>
       </c>
       <c r="F33" s="3">
-        <v>1463100</v>
+        <v>919000</v>
       </c>
       <c r="G33" s="3">
-        <v>702400</v>
+        <v>601700</v>
       </c>
       <c r="H33" s="3">
+        <v>1181400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1431800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>687300</v>
+      </c>
+      <c r="K33" s="3">
         <v>699000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>863900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>1641500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>914400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-131500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1820,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>614900</v>
+        <v>-486400</v>
       </c>
       <c r="E35" s="3">
-        <v>1207300</v>
+        <v>1043100</v>
       </c>
       <c r="F35" s="3">
-        <v>1463100</v>
+        <v>919000</v>
       </c>
       <c r="G35" s="3">
-        <v>702400</v>
+        <v>601700</v>
       </c>
       <c r="H35" s="3">
+        <v>1181400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1431800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>687300</v>
+      </c>
+      <c r="K35" s="3">
         <v>699000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>863900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>1641500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>914400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-131500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1937,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,323 +1955,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6386400</v>
+        <v>9638200</v>
       </c>
       <c r="E41" s="3">
-        <v>6886800</v>
+        <v>8331600</v>
       </c>
       <c r="F41" s="3">
-        <v>4108700</v>
+        <v>9174900</v>
       </c>
       <c r="G41" s="3">
-        <v>5410200</v>
+        <v>6249800</v>
       </c>
       <c r="H41" s="3">
+        <v>6739500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4020900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5294600</v>
+      </c>
+      <c r="K41" s="3">
         <v>5825400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>4146900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>6783600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>8675600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>4385400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>3702200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2478500</v>
+        <v>3341200</v>
       </c>
       <c r="E42" s="3">
-        <v>2472900</v>
+        <v>3500400</v>
       </c>
       <c r="F42" s="3">
-        <v>2863300</v>
+        <v>3268700</v>
       </c>
       <c r="G42" s="3">
-        <v>3299800</v>
+        <v>2425500</v>
       </c>
       <c r="H42" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2802100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3229200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2416800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>2641200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>4027900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>4370100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>3467400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>3631800</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11326500</v>
+        <v>13350600</v>
       </c>
       <c r="E43" s="3">
-        <v>13210300</v>
+        <v>11614600</v>
       </c>
       <c r="F43" s="3">
-        <v>10550100</v>
+        <v>13387900</v>
       </c>
       <c r="G43" s="3">
-        <v>13355000</v>
+        <v>11084300</v>
       </c>
       <c r="H43" s="3">
+        <v>12927900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10324500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>13069500</v>
+      </c>
+      <c r="K43" s="3">
         <v>12867000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>13039800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>13681500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>14182000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>14329900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>14147900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1898400</v>
+        <v>2577000</v>
       </c>
       <c r="E44" s="3">
-        <v>2034200</v>
+        <v>1874300</v>
       </c>
       <c r="F44" s="3">
-        <v>1368800</v>
+        <v>1743600</v>
       </c>
       <c r="G44" s="3">
-        <v>1317200</v>
+        <v>1857800</v>
       </c>
       <c r="H44" s="3">
+        <v>1990700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1339600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1289100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1253300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>1377800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>1154500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>1320500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>1238400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>1353400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4097500</v>
+        <v>980500</v>
       </c>
       <c r="E45" s="3">
-        <v>96500</v>
+        <v>4076900</v>
       </c>
       <c r="F45" s="3">
-        <v>2857700</v>
+        <v>1621700</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>4009900</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>94400</v>
       </c>
       <c r="I45" s="3">
+        <v>2796600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>19100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>20000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>24700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26187200</v>
+        <v>29887600</v>
       </c>
       <c r="E46" s="3">
-        <v>24700600</v>
+        <v>29397900</v>
       </c>
       <c r="F46" s="3">
-        <v>21748700</v>
+        <v>29196900</v>
       </c>
       <c r="G46" s="3">
-        <v>23382300</v>
+        <v>25627300</v>
       </c>
       <c r="H46" s="3">
+        <v>24172500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>21283600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>22882300</v>
+      </c>
+      <c r="K46" s="3">
         <v>22362400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>21206700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>25666600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>28568200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>23445700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>22863500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2312400</v>
+        <v>9372500</v>
       </c>
       <c r="E47" s="3">
-        <v>9181200</v>
+        <v>1970900</v>
       </c>
       <c r="F47" s="3">
-        <v>3546600</v>
+        <v>8140600</v>
       </c>
       <c r="G47" s="3">
-        <v>9468500</v>
+        <v>2263000</v>
       </c>
       <c r="H47" s="3">
+        <v>8984900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3470800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9266000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2705100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>9512200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>3100100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>11416500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>11551500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>11461100</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37356700</v>
+        <v>42924100</v>
       </c>
       <c r="E48" s="3">
-        <v>37165900</v>
+        <v>43839800</v>
       </c>
       <c r="F48" s="3">
-        <v>36659900</v>
+        <v>26117000</v>
       </c>
       <c r="G48" s="3">
-        <v>37766200</v>
+        <v>36557900</v>
       </c>
       <c r="H48" s="3">
+        <v>36371300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>35876100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>36958700</v>
+      </c>
+      <c r="K48" s="3">
         <v>38400100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>38449500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>38374300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>43046000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>42718500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>40554000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>47801300</v>
+        <v>46309200</v>
       </c>
       <c r="E49" s="3">
-        <v>47753000</v>
+        <v>45951300</v>
       </c>
       <c r="F49" s="3">
-        <v>47847300</v>
+        <v>64875300</v>
       </c>
       <c r="G49" s="3">
-        <v>49294600</v>
+        <v>46779200</v>
       </c>
       <c r="H49" s="3">
+        <v>46732000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>46824200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>48240600</v>
+      </c>
+      <c r="K49" s="3">
         <v>50316800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>51876300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>51807900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>57717400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>57756100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>57014300</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2389,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2433,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14302000</v>
+        <v>8035200</v>
       </c>
       <c r="E52" s="3">
-        <v>8279200</v>
+        <v>13613000</v>
       </c>
       <c r="F52" s="3">
-        <v>14683500</v>
+        <v>7589400</v>
       </c>
       <c r="G52" s="3">
-        <v>8862600</v>
+        <v>13996200</v>
       </c>
       <c r="H52" s="3">
+        <v>8102100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>14369500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8673100</v>
+      </c>
+      <c r="K52" s="3">
         <v>15318500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>9052200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>16083700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>9645200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>9659300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>9747300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2521,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>127959600</v>
+        <v>136528600</v>
       </c>
       <c r="E54" s="3">
-        <v>127080000</v>
+        <v>134772900</v>
       </c>
       <c r="F54" s="3">
-        <v>124485900</v>
+        <v>135919200</v>
       </c>
       <c r="G54" s="3">
-        <v>128774200</v>
+        <v>125223600</v>
       </c>
       <c r="H54" s="3">
+        <v>124362800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>121824200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>126020800</v>
+      </c>
+      <c r="K54" s="3">
         <v>129102900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>130097000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>135032600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>150393200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>145131000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>141640100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2589,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,218 +2607,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17374000</v>
+        <v>17273700</v>
       </c>
       <c r="E57" s="3">
-        <v>17549000</v>
+        <v>8654400</v>
       </c>
       <c r="F57" s="3">
-        <v>8826700</v>
+        <v>15639900</v>
       </c>
       <c r="G57" s="3">
-        <v>15789800</v>
+        <v>17002500</v>
       </c>
       <c r="H57" s="3">
+        <v>17173800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>8638000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15452200</v>
+      </c>
+      <c r="K57" s="3">
         <v>16936400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>16011900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>16140900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>17013200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>18957000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>17546100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10510800</v>
+        <v>11855100</v>
       </c>
       <c r="E58" s="3">
-        <v>9543600</v>
+        <v>13083800</v>
       </c>
       <c r="F58" s="3">
-        <v>9091500</v>
+        <v>13378000</v>
       </c>
       <c r="G58" s="3">
-        <v>7913400</v>
+        <v>10286100</v>
       </c>
       <c r="H58" s="3">
+        <v>9339600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>8897100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7744200</v>
+      </c>
+      <c r="K58" s="3">
         <v>10562400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>10917000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>15388100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>17176400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>17312500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>18158800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5381100</v>
+        <v>4796100</v>
       </c>
       <c r="E59" s="3">
-        <v>4534000</v>
+        <v>13262700</v>
       </c>
       <c r="F59" s="3">
-        <v>13316900</v>
+        <v>4885000</v>
       </c>
       <c r="G59" s="3">
-        <v>5171300</v>
+        <v>5266000</v>
       </c>
       <c r="H59" s="3">
+        <v>4437000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>13032200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5060700</v>
+      </c>
+      <c r="K59" s="3">
         <v>5112900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>4811100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>4919900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>5508700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>5343200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>4803200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33265900</v>
+        <v>33924900</v>
       </c>
       <c r="E60" s="3">
-        <v>31626700</v>
+        <v>35000900</v>
       </c>
       <c r="F60" s="3">
-        <v>31235100</v>
+        <v>33902900</v>
       </c>
       <c r="G60" s="3">
-        <v>28874400</v>
+        <v>32554600</v>
       </c>
       <c r="H60" s="3">
+        <v>30950400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>30567200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>28257000</v>
+      </c>
+      <c r="K60" s="3">
         <v>32611800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>31740000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>36449000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>39698300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>41612700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>40508200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50864300</v>
+        <v>58459700</v>
       </c>
       <c r="E61" s="3">
-        <v>53274300</v>
+        <v>57374900</v>
       </c>
       <c r="F61" s="3">
-        <v>52506900</v>
+        <v>57301300</v>
       </c>
       <c r="G61" s="3">
-        <v>54809200</v>
+        <v>49776700</v>
       </c>
       <c r="H61" s="3">
+        <v>52135200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>51384200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>53637300</v>
+      </c>
+      <c r="K61" s="3">
         <v>51984000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>53494200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>54730700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>58827800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>53539800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>53644300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13558100</v>
+        <v>16436000</v>
       </c>
       <c r="E62" s="3">
-        <v>13911600</v>
+        <v>13356100</v>
       </c>
       <c r="F62" s="3">
-        <v>14136000</v>
+        <v>13403300</v>
       </c>
       <c r="G62" s="3">
-        <v>14552200</v>
+        <v>13268200</v>
       </c>
       <c r="H62" s="3">
+        <v>13614100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>13833700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14241100</v>
+      </c>
+      <c r="K62" s="3">
         <v>14642000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>14922500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>15204100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>16766700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>16659900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>15685600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +2909,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +2953,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +2997,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>107823200</v>
+        <v>118001000</v>
       </c>
       <c r="E66" s="3">
-        <v>108821800</v>
+        <v>115156000</v>
       </c>
       <c r="F66" s="3">
-        <v>107856900</v>
+        <v>114531300</v>
       </c>
       <c r="G66" s="3">
-        <v>108883500</v>
+        <v>105517800</v>
       </c>
       <c r="H66" s="3">
+        <v>106495000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>105550700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>106555400</v>
+      </c>
+      <c r="K66" s="3">
         <v>110118800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>110642800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>116096800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>126574300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>123818200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>121489300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3065,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3103,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +3147,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,8 +3191,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3235,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>20136400</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>18258100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>21902400</v>
+        <v>16999200</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>19891800</v>
+        <v>19705800</v>
       </c>
       <c r="H72" s="3">
+        <v>17867800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>21434100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>19466400</v>
+      </c>
+      <c r="K72" s="3">
         <v>18984100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>19454200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>20857800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>23819000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>21312900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>20150800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3323,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3367,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3411,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20136400</v>
+        <v>18527700</v>
       </c>
       <c r="E76" s="3">
-        <v>18258100</v>
+        <v>19616900</v>
       </c>
       <c r="F76" s="3">
-        <v>16629000</v>
+        <v>21387900</v>
       </c>
       <c r="G76" s="3">
-        <v>19890600</v>
+        <v>19705800</v>
       </c>
       <c r="H76" s="3">
+        <v>17867800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>16273500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>19465300</v>
+      </c>
+      <c r="K76" s="3">
         <v>18984100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>19454200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>18935800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>23819000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>21312900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>20150800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3499,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>614900</v>
+        <v>-486400</v>
       </c>
       <c r="E81" s="3">
-        <v>1207300</v>
+        <v>1043100</v>
       </c>
       <c r="F81" s="3">
-        <v>1463100</v>
+        <v>919000</v>
       </c>
       <c r="G81" s="3">
-        <v>702400</v>
+        <v>601700</v>
       </c>
       <c r="H81" s="3">
+        <v>1181400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1431800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>687300</v>
+      </c>
+      <c r="K81" s="3">
         <v>699000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>863900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>1641500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>914400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-131500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,8 +3616,11 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3095,8 +3654,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3698,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3742,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3786,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +3830,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +3874,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>4131800</v>
       </c>
       <c r="E89" s="3">
-        <v>3488300</v>
+        <v>3987900</v>
       </c>
       <c r="F89" s="3">
-        <v>6845300</v>
+        <v>4003300</v>
       </c>
       <c r="G89" s="3">
-        <v>2941900</v>
+        <v>4500700</v>
       </c>
       <c r="H89" s="3">
+        <v>3413700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>6698900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2879000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4410500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>4385900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>6680300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>3219800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>4737500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>4595500</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +3942,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-2270700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1978100</v>
+        <v>-2024700</v>
       </c>
       <c r="F91" s="3">
-        <v>-5141000</v>
+        <v>-2185000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2360700</v>
+        <v>-2459500</v>
       </c>
       <c r="H91" s="3">
+        <v>-1935800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-5031000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2310200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2466100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-2680400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-4942400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-2682200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-2297100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-2994400</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4024,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4068,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>-920100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-924500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2348600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-2302500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1462500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-5771100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3781500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2518900</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-2376400</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-6599500</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-3958100</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>-1494500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-5897200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3864100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2518900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2376400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-6599500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-3958100</v>
-      </c>
-      <c r="L94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,43 +4136,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-345900</v>
       </c>
       <c r="E96" s="3">
-        <v>-322000</v>
+        <v>-1266000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1607800</v>
+        <v>-186700</v>
       </c>
       <c r="G96" s="3">
-        <v>-375900</v>
+        <v>-1179300</v>
       </c>
       <c r="H96" s="3">
+        <v>-315100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1573400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-367800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-290600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-1274600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-85700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4218,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4262,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4306,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="3">
+        <v>-1880900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3834200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1168300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-2673600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>766400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2353000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>566600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-4731400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>2838600</v>
+      </c>
+      <c r="N100" s="3">
+        <v>4968700</v>
+      </c>
+      <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>783100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-2404400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>578900</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-72900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-4731400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2838600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>4968700</v>
-      </c>
-      <c r="L100" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>102100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-254700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>85300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-327600</v>
+      </c>
+      <c r="N101" s="3">
+        <v>59900</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-260300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-71800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-140200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>85300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-327600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>59900</v>
-      </c>
-      <c r="L101" s="3" t="s">
+      <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="3">
+        <v>1306600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-843300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2925100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-489700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2718600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1679900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-406300</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1678500</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-2636700</v>
+      </c>
+      <c r="M102" s="3">
+        <v>2591800</v>
+      </c>
+      <c r="N102" s="3">
+        <v>4290300</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3">
-        <v>2778000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1716600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-415100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>1678500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-2636700</v>
-      </c>
-      <c r="J102" s="3">
-        <v>2591800</v>
-      </c>
-      <c r="K102" s="3">
-        <v>4290300</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
